--- a/2020项目对接/09-15 暖哇科技/免责声明/产品免责声明对应关系.xlsx
+++ b/2020项目对接/09-15 暖哇科技/免责声明/产品免责声明对应关系.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>远盟产品标识码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +117,26 @@
   </si>
   <si>
     <t>暖哇-现代财“橙易保百万医疗保险”增值服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖哇-国任重疾三项服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I21AI5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRCM01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRCY01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《【任小康健康管家】服务协议及免责说明》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -148,7 +168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -171,11 +191,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -187,6 +233,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -492,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -623,8 +675,33 @@
       </c>
       <c r="D11" s="4"/>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="15">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D12:D13"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="D10:D11"/>
